--- a/R/analysis/data/autovalutazione_clips.xlsx
+++ b/R/analysis/data/autovalutazione_clips.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thomasquettier/Library/Mobile Documents/com~apple~CloudDocs/01.WORK/05GENUINE/github/Genuine/R/analysis/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02FAEE7F-625D-7147-9967-246ECA0E2E4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B0B289C-8875-AF44-A5AE-910E3850B658}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12340" yWindow="520" windowWidth="21740" windowHeight="15960" xr2:uid="{6C0D2408-4499-E84B-828F-2D06BB3549A3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{6C0D2408-4499-E84B-828F-2D06BB3549A3}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="74">
   <si>
     <t>Emotion</t>
   </si>
@@ -258,22 +258,13 @@
   </si>
   <si>
     <t>Autovalutazione</t>
-  </si>
-  <si>
-    <t>AUTOVALUTAZIONE su INTENSITà: quanto intensa è l'emozione che hai provato?</t>
-  </si>
-  <si>
-    <t>NB: per le simulate è 0 per definizione. Le domande che gli erano poste erano: 1)che emozione hai provato? Il video era selezionato solo se l'emozione provata corrispondeva con quella che tentavamo di elicitare. 2) quanto intensa era l'emozione provata? Se l'emozione è simulata non provavano alcuna emozione, quindi l'intensità è 0.</t>
-  </si>
-  <si>
-    <t>sicuri di avere questo video?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -282,17 +273,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="7"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Helvetica"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="7"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Helvetica"/>
-      <family val="2"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -309,7 +312,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -317,66 +320,175 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Helvetica"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -387,6 +499,19 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D0B21B83-154A-644C-8538-031150A0E67E}" name="Tabella1" displayName="Tabella1" ref="A1:D66" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+  <autoFilter ref="A1:D66" xr:uid="{D0B21B83-154A-644C-8538-031150A0E67E}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{0D56D839-AB4E-C14A-8944-68CE9B363E29}" name="Emotion" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{A29A2866-B2D7-FA4D-840B-459E70F39175}" name="Elicitation" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{FB34B265-966A-EC4E-BAAE-5D9166E6309D}" name="Mp4" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{A9B357C2-E4BE-DB48-958E-738D64CE9473}" name="Autovalutazione" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -706,742 +831,1009 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B34EB7D-91B1-7842-B2A6-66500E5301A5}">
-  <dimension ref="A1:H66"/>
+  <dimension ref="A1:E66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+    <sheetView tabSelected="1" zoomScale="84" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="10.6640625" style="5"/>
-    <col min="8" max="8" width="46.5" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="1" t="s">
+    <row r="2" spans="1:5" s="6" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="4">
         <v>7</v>
       </c>
-      <c r="F2" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="1" t="s">
+      <c r="E2" s="5"/>
+    </row>
+    <row r="3" spans="1:5" s="6" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="4">
         <v>7</v>
       </c>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="1" t="s">
+      <c r="E3" s="5"/>
+    </row>
+    <row r="4" spans="1:5" s="6" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="4">
         <v>8</v>
       </c>
-      <c r="F4" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="1" t="s">
+      <c r="E4" s="5"/>
+    </row>
+    <row r="5" spans="1:5" s="6" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="5">
-        <v>4</v>
-      </c>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="1" t="s">
+      <c r="D5" s="4">
+        <v>4</v>
+      </c>
+      <c r="E5" s="5"/>
+    </row>
+    <row r="6" spans="1:5" s="6" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="4">
         <v>8</v>
       </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="1" t="s">
+      <c r="E6" s="5"/>
+    </row>
+    <row r="7" spans="1:5" s="6" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="5">
-        <v>3</v>
-      </c>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="1" t="s">
+      <c r="D7" s="4">
+        <v>3</v>
+      </c>
+      <c r="E7" s="5"/>
+    </row>
+    <row r="8" spans="1:5" s="6" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="4">
         <v>8</v>
       </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="10"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="1" t="s">
+      <c r="E8" s="5"/>
+    </row>
+    <row r="9" spans="1:5" s="6" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="5">
-        <v>3</v>
-      </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="10"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="1" t="s">
+      <c r="D9" s="4">
+        <v>3</v>
+      </c>
+      <c r="E9" s="5"/>
+    </row>
+    <row r="10" spans="1:5" s="6" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="10"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="1" t="s">
+      <c r="D10" s="4">
+        <v>4</v>
+      </c>
+      <c r="E10" s="5"/>
+    </row>
+    <row r="11" spans="1:5" s="6" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="4">
         <v>8</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="10"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="2" t="s">
+      <c r="E11" s="5"/>
+    </row>
+    <row r="12" spans="1:5" s="6" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="1" t="s">
+      <c r="E12" s="5"/>
+    </row>
+    <row r="13" spans="1:5" s="6" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="10"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="1" t="s">
+      <c r="D13" s="4">
+        <v>0</v>
+      </c>
+      <c r="E13" s="5"/>
+    </row>
+    <row r="14" spans="1:5" s="6" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="10"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="1" t="s">
+      <c r="D14" s="4">
+        <v>0</v>
+      </c>
+      <c r="E14" s="5"/>
+    </row>
+    <row r="15" spans="1:5" s="6" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="10"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="1" t="s">
+      <c r="D15" s="4">
+        <v>0</v>
+      </c>
+      <c r="E15" s="5"/>
+    </row>
+    <row r="16" spans="1:5" s="6" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="10"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="1" t="s">
+      <c r="D16" s="4">
+        <v>0</v>
+      </c>
+      <c r="E16" s="5"/>
+    </row>
+    <row r="17" spans="1:5" s="6" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="10"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="1" t="s">
+      <c r="D17" s="4">
+        <v>0</v>
+      </c>
+      <c r="E17" s="5"/>
+    </row>
+    <row r="18" spans="1:5" s="6" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="10"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="1" t="s">
+      <c r="D18" s="4">
+        <v>0</v>
+      </c>
+      <c r="E18" s="5"/>
+    </row>
+    <row r="19" spans="1:5" s="6" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="10"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="1" t="s">
+      <c r="D19" s="4">
+        <v>0</v>
+      </c>
+      <c r="E19" s="5"/>
+    </row>
+    <row r="20" spans="1:5" s="6" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D20" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="10"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="1" t="s">
+      <c r="D20" s="4">
+        <v>0</v>
+      </c>
+      <c r="E20" s="5"/>
+    </row>
+    <row r="21" spans="1:5" s="6" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D21" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="10"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="1" t="s">
+      <c r="D21" s="4">
+        <v>0</v>
+      </c>
+      <c r="E21" s="5"/>
+    </row>
+    <row r="22" spans="1:5" s="6" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D22" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="11"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="2" t="s">
+      <c r="D22" s="4">
+        <v>0</v>
+      </c>
+      <c r="E22" s="5"/>
+    </row>
+    <row r="23" spans="1:5" s="6" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D23" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C24" s="1" t="s">
+      <c r="D23" s="4">
+        <v>0</v>
+      </c>
+      <c r="E23" s="5"/>
+    </row>
+    <row r="24" spans="1:5" s="6" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D24" s="5">
+      <c r="D24" s="4">
         <v>9</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="10"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="1" t="s">
+      <c r="E24" s="5"/>
+    </row>
+    <row r="25" spans="1:5" s="6" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D25" s="5">
+      <c r="D25" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="10"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="1" t="s">
+      <c r="E25" s="5"/>
+    </row>
+    <row r="26" spans="1:5" s="6" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D26" s="5">
+      <c r="D26" s="4">
         <v>9</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="10"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="1" t="s">
+      <c r="E26" s="5"/>
+    </row>
+    <row r="27" spans="1:5" s="6" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D27" s="5">
+      <c r="D27" s="4">
         <v>6</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="10"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="1" t="s">
+      <c r="E27" s="5"/>
+    </row>
+    <row r="28" spans="1:5" s="6" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D28" s="5">
+      <c r="D28" s="4">
         <v>7</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="10"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="1" t="s">
+      <c r="E28" s="5"/>
+    </row>
+    <row r="29" spans="1:5" s="6" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D29" s="5">
+      <c r="D29" s="4">
         <v>9</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="10"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="1" t="s">
+      <c r="E29" s="5"/>
+    </row>
+    <row r="30" spans="1:5" s="6" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D30" s="5">
+      <c r="D30" s="4">
         <v>7</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="10"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="1" t="s">
+      <c r="E30" s="5"/>
+    </row>
+    <row r="31" spans="1:5" s="6" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D31" s="5">
+      <c r="D31" s="4">
         <v>7</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="10"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="1" t="s">
+      <c r="E31" s="5"/>
+    </row>
+    <row r="32" spans="1:5" s="6" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D32" s="5">
+      <c r="D32" s="4">
         <v>8</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="10"/>
-      <c r="B33" s="10"/>
-      <c r="C33" s="1" t="s">
+      <c r="E32" s="5"/>
+    </row>
+    <row r="33" spans="1:5" s="6" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D33" s="5">
+      <c r="D33" s="4">
         <v>6</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="10"/>
-      <c r="B34" s="11"/>
-      <c r="C34" s="1" t="s">
+      <c r="E33" s="5"/>
+    </row>
+    <row r="34" spans="1:5" s="6" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D34" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="10"/>
-      <c r="B35" s="10" t="s">
+      <c r="D34" s="4">
+        <v>4</v>
+      </c>
+      <c r="E34" s="5"/>
+    </row>
+    <row r="35" spans="1:5" s="6" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B35" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D35" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="10"/>
-      <c r="B36" s="10"/>
-      <c r="C36" s="1" t="s">
+      <c r="D35" s="4">
+        <v>0</v>
+      </c>
+      <c r="E35" s="5"/>
+    </row>
+    <row r="36" spans="1:5" s="6" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C36" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D36" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="10"/>
-      <c r="B37" s="10"/>
-      <c r="C37" s="1" t="s">
+      <c r="D36" s="4">
+        <v>0</v>
+      </c>
+      <c r="E36" s="5"/>
+    </row>
+    <row r="37" spans="1:5" s="6" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C37" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D37" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="10"/>
-      <c r="B38" s="10"/>
-      <c r="C38" s="1" t="s">
+      <c r="D37" s="4">
+        <v>0</v>
+      </c>
+      <c r="E37" s="5"/>
+    </row>
+    <row r="38" spans="1:5" s="6" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C38" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D38" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="10"/>
-      <c r="B39" s="10"/>
-      <c r="C39" s="1" t="s">
+      <c r="D38" s="4">
+        <v>0</v>
+      </c>
+      <c r="E38" s="5"/>
+    </row>
+    <row r="39" spans="1:5" s="6" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C39" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D39" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="10"/>
-      <c r="B40" s="10"/>
-      <c r="C40" s="1" t="s">
+      <c r="D39" s="4">
+        <v>0</v>
+      </c>
+      <c r="E39" s="5"/>
+    </row>
+    <row r="40" spans="1:5" s="6" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C40" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D40" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="10"/>
-      <c r="B41" s="10"/>
-      <c r="C41" s="1" t="s">
+      <c r="D40" s="4">
+        <v>0</v>
+      </c>
+      <c r="E40" s="5"/>
+    </row>
+    <row r="41" spans="1:5" s="6" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C41" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D41" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="10"/>
-      <c r="B42" s="10"/>
-      <c r="C42" s="1" t="s">
+      <c r="D41" s="4">
+        <v>0</v>
+      </c>
+      <c r="E41" s="5"/>
+    </row>
+    <row r="42" spans="1:5" s="6" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C42" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D42" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="10"/>
-      <c r="B43" s="10"/>
-      <c r="C43" s="1" t="s">
+      <c r="D42" s="4">
+        <v>0</v>
+      </c>
+      <c r="E42" s="5"/>
+    </row>
+    <row r="43" spans="1:5" s="6" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C43" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D43" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="11"/>
-      <c r="B44" s="11"/>
-      <c r="C44" s="2" t="s">
+      <c r="D43" s="4">
+        <v>0</v>
+      </c>
+      <c r="E43" s="5"/>
+    </row>
+    <row r="44" spans="1:5" s="6" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C44" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D44" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="B45" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C45" s="1" t="s">
+      <c r="D44" s="4">
+        <v>0</v>
+      </c>
+      <c r="E44" s="5"/>
+    </row>
+    <row r="45" spans="1:5" s="6" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C45" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D45" s="6">
+      <c r="D45" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="10"/>
-      <c r="B46" s="10"/>
-      <c r="C46" s="1" t="s">
+      <c r="E45" s="5"/>
+    </row>
+    <row r="46" spans="1:5" s="6" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C46" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D46" s="5">
+      <c r="D46" s="4">
         <v>6</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="10"/>
-      <c r="B47" s="10"/>
-      <c r="C47" s="1" t="s">
+      <c r="E46" s="5"/>
+    </row>
+    <row r="47" spans="1:5" s="6" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C47" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D47" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="10"/>
-      <c r="B48" s="10"/>
-      <c r="C48" s="1" t="s">
+      <c r="D47" s="4">
+        <v>3</v>
+      </c>
+      <c r="E47" s="5"/>
+    </row>
+    <row r="48" spans="1:5" s="6" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C48" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D48" s="5">
+      <c r="D48" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="10"/>
-      <c r="B49" s="10"/>
-      <c r="C49" s="1" t="s">
+      <c r="E48" s="5"/>
+    </row>
+    <row r="49" spans="1:5" s="6" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C49" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D49" s="5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="10"/>
-      <c r="B50" s="10"/>
-      <c r="C50" s="1" t="s">
+      <c r="D49" s="4"/>
+      <c r="E49" s="5"/>
+    </row>
+    <row r="50" spans="1:5" s="6" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C50" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D50" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="10"/>
-      <c r="B51" s="10"/>
-      <c r="C51" s="1" t="s">
+      <c r="D50" s="4">
+        <v>3</v>
+      </c>
+      <c r="E50" s="5"/>
+    </row>
+    <row r="51" spans="1:5" s="6" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C51" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D51" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="10"/>
-      <c r="B52" s="10"/>
-      <c r="C52" s="1" t="s">
+      <c r="D51" s="4">
+        <v>4</v>
+      </c>
+      <c r="E51" s="5"/>
+    </row>
+    <row r="52" spans="1:5" s="6" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C52" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D52" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="10"/>
-      <c r="B53" s="10"/>
-      <c r="C53" s="1" t="s">
+      <c r="D52" s="4">
+        <v>4</v>
+      </c>
+      <c r="E52" s="5"/>
+    </row>
+    <row r="53" spans="1:5" s="6" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C53" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D53" s="5">
+      <c r="D53" s="4">
         <v>6</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="10"/>
-      <c r="B54" s="10"/>
-      <c r="C54" s="1" t="s">
+      <c r="E53" s="5"/>
+    </row>
+    <row r="54" spans="1:5" s="6" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C54" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D54" s="5">
+      <c r="D54" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="10"/>
-      <c r="B55" s="11"/>
-      <c r="C55" s="2" t="s">
+      <c r="E54" s="5"/>
+    </row>
+    <row r="55" spans="1:5" s="6" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C55" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D55" s="6">
+      <c r="D55" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="10"/>
-      <c r="B56" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C56" s="1" t="s">
+      <c r="E55" s="5"/>
+    </row>
+    <row r="56" spans="1:5" s="6" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C56" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D56" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="10"/>
-      <c r="B57" s="10"/>
-      <c r="C57" s="1" t="s">
+      <c r="D56" s="4">
+        <v>0</v>
+      </c>
+      <c r="E56" s="5"/>
+    </row>
+    <row r="57" spans="1:5" s="6" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C57" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D57" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="10"/>
-      <c r="B58" s="10"/>
-      <c r="C58" s="1" t="s">
+      <c r="D57" s="4">
+        <v>0</v>
+      </c>
+      <c r="E57" s="5"/>
+    </row>
+    <row r="58" spans="1:5" s="6" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C58" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D58" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="10"/>
-      <c r="B59" s="10"/>
-      <c r="C59" s="1" t="s">
+      <c r="D58" s="4">
+        <v>0</v>
+      </c>
+      <c r="E58" s="5"/>
+    </row>
+    <row r="59" spans="1:5" s="6" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C59" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D59" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="10"/>
-      <c r="B60" s="10"/>
-      <c r="C60" s="1" t="s">
+      <c r="D59" s="4">
+        <v>0</v>
+      </c>
+      <c r="E59" s="5"/>
+    </row>
+    <row r="60" spans="1:5" s="6" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C60" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D60" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" s="10"/>
-      <c r="B61" s="10"/>
-      <c r="C61" s="1" t="s">
+      <c r="D60" s="4">
+        <v>0</v>
+      </c>
+      <c r="E60" s="5"/>
+    </row>
+    <row r="61" spans="1:5" s="6" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C61" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D61" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" s="10"/>
-      <c r="B62" s="10"/>
-      <c r="C62" s="1" t="s">
+      <c r="D61" s="4">
+        <v>0</v>
+      </c>
+      <c r="E61" s="5"/>
+    </row>
+    <row r="62" spans="1:5" s="6" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C62" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D62" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="10"/>
-      <c r="B63" s="10"/>
-      <c r="C63" s="1" t="s">
+      <c r="D62" s="4">
+        <v>0</v>
+      </c>
+      <c r="E62" s="5"/>
+    </row>
+    <row r="63" spans="1:5" s="6" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C63" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D63" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="10"/>
-      <c r="B64" s="10"/>
-      <c r="C64" s="1" t="s">
+      <c r="D63" s="4">
+        <v>0</v>
+      </c>
+      <c r="E63" s="5"/>
+    </row>
+    <row r="64" spans="1:5" s="6" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C64" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="D64" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="10"/>
-      <c r="B65" s="10"/>
-      <c r="C65" s="1" t="s">
+      <c r="D64" s="4">
+        <v>0</v>
+      </c>
+      <c r="E64" s="5"/>
+    </row>
+    <row r="65" spans="1:5" s="6" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C65" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D65" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="11"/>
-      <c r="B66" s="11"/>
-      <c r="C66" s="2" t="s">
+      <c r="D65" s="4">
+        <v>0</v>
+      </c>
+      <c r="E65" s="5"/>
+    </row>
+    <row r="66" spans="1:5" s="6" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C66" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D66" s="6">
-        <v>0</v>
-      </c>
+      <c r="D66" s="4">
+        <v>0</v>
+      </c>
+      <c r="E66" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="F2:H3"/>
-    <mergeCell ref="F4:H9"/>
-    <mergeCell ref="A45:A66"/>
-    <mergeCell ref="B45:B55"/>
-    <mergeCell ref="B56:B66"/>
-    <mergeCell ref="A2:A23"/>
-    <mergeCell ref="B2:B12"/>
-    <mergeCell ref="B13:B23"/>
-    <mergeCell ref="A24:A44"/>
-    <mergeCell ref="B24:B34"/>
-    <mergeCell ref="B35:B44"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>